--- a/doc/ue_movieplayer_viewport.xlsx
+++ b/doc/ue_movieplayer_viewport.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C344478B-28D9-45E7-A2C0-8D75C56EF94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20E09A8-2A86-45FF-9B37-37B4C6E62821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
+    <sheet name="播放Movie的时候场景不渲染" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>默认我们渲染的是SceneViewPort，但是当播放MoviePlayer的时候会替换成目标的Wiget</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +76,21 @@
   </si>
   <si>
     <t>播放完之后在设置回去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑是，播放MoviePlayer的时候，底层的GameWindow子节点切换成了我们传入的Widget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneViewport没有对应的渲染Texture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRDGTextureRef ViewFamilyTexture = TryCreateViewFamilyTexture(GraphBuilder, ViewFamily);</t>
+  </si>
+  <si>
+    <t>返回的是无效值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -513,4 +529,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99B6D8E-593E-4189-854C-68FAB08E4777}">
+  <dimension ref="B4:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>